--- a/HRI/Lab2_EMGInterfacing/FeatureData/DataLog.xlsx
+++ b/HRI/Lab2_EMGInterfacing/FeatureData/DataLog.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smithjl3\Documents\GitHub\HRI-LABS-BBALL\HRI\Lab2_EMGInterfacing\FeatureData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\GitHub\HRI-LABS-BBALL\HRI\Lab2_EMGInterfacing\FeatureData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5224A0F2-F2CF-4EBE-BD5A-E24BC318C96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="3225" windowWidth="7740" windowHeight="8640" xr2:uid="{46495FDF-836F-4063-8C47-2121ECC8C019}"/>
+    <workbookView xWindow="19770" yWindow="3225" windowWidth="7740" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,11 +389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7B3DED-F1AD-4332-A2B4-430727191087}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,7 +419,151 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/HRI/Lab2_EMGInterfacing/FeatureData/DataLog.xlsx
+++ b/HRI/Lab2_EMGInterfacing/FeatureData/DataLog.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HRI/Lab2_EMGInterfacing/FeatureData/DataLog.xlsx
+++ b/HRI/Lab2_EMGInterfacing/FeatureData/DataLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\GitHub\HRI-LABS-BBALL\HRI\Lab2_EMGInterfacing\FeatureData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smithjl3\Documents\GitHub\HRI-LABS-BBALL\HRI\Lab2_EMGInterfacing\FeatureData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCEFC2A-3764-4182-8DE2-4C4E8BA84161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="3225" windowWidth="7740" windowHeight="8640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,11 +381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +403,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -427,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +451,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +459,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -483,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,7 +491,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +499,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +515,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +523,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,7 +531,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,7 +539,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +547,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,7 +555,279 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
